--- a/TenentDetails.xlsx
+++ b/TenentDetails.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>44080</v>
+        <v>44082</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>

--- a/TenentDetails.xlsx
+++ b/TenentDetails.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chetan P\Documents\UiPath\SendTheInvoiceToTenent\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A1ABBF-2E5E-41BE-B398-8D62454F6B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,16 +390,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>44080</v>
+        <v>44116</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -460,9 +462,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
